--- a/Yandex_learning/interview/Задача.xlsx
+++ b/Yandex_learning/interview/Задача.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shoma/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shoma/Learning/Yandex_learning/interview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FDD46E-2764-AE4A-907B-67A2ACC4D4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A26F9B-5032-2F4F-BBFD-5F5E4EC2DD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3240" yWindow="1180" windowWidth="28240" windowHeight="17240" xr2:uid="{9F686658-B38A-AF43-87BC-8862ADFA90CD}"/>
   </bookViews>
@@ -653,7 +653,7 @@
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/Yandex_learning/interview/Задача.xlsx
+++ b/Yandex_learning/interview/Задача.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shoma/Learning/Yandex_learning/interview/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shoma\Documents\Learning\Yandex_learning\interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A26F9B-5032-2F4F-BBFD-5F5E4EC2DD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436B4840-14E2-4289-AAE6-A11539E39931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="1180" windowWidth="28240" windowHeight="17240" xr2:uid="{9F686658-B38A-AF43-87BC-8862ADFA90CD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{9F686658-B38A-AF43-87BC-8862ADFA90CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
   <si>
     <t>Line Reflection</t>
   </si>
@@ -652,11 +652,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F341B8F-6337-7643-A497-1C0AC0EBA6FD}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1">
@@ -957,6 +957,12 @@
       <c r="C18" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="G18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">

--- a/Yandex_learning/interview/Задача.xlsx
+++ b/Yandex_learning/interview/Задача.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shoma\Documents\Learning\Yandex_learning\interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436B4840-14E2-4289-AAE6-A11539E39931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0089091-72A2-4399-89A3-5909245A95A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{9F686658-B38A-AF43-87BC-8862ADFA90CD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="73">
   <si>
     <t>Line Reflection</t>
   </si>
@@ -653,7 +653,7 @@
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -974,6 +974,9 @@
       <c r="C19" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="G19" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
@@ -984,6 +987,12 @@
       </c>
       <c r="C20" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="G20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:8">

--- a/Yandex_learning/interview/Задача.xlsx
+++ b/Yandex_learning/interview/Задача.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shoma\Documents\Learning\Yandex_learning\interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0089091-72A2-4399-89A3-5909245A95A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB81DE5-21D9-4C2F-BDDE-5035067AD055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{9F686658-B38A-AF43-87BC-8862ADFA90CD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="73">
   <si>
     <t>Line Reflection</t>
   </si>
@@ -653,7 +653,7 @@
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1005,6 +1005,12 @@
       <c r="C21" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="G21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1">

--- a/Yandex_learning/interview/Задача.xlsx
+++ b/Yandex_learning/interview/Задача.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shoma\Documents\Learning\Yandex_learning\interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB81DE5-21D9-4C2F-BDDE-5035067AD055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591634F7-041C-4658-8500-636ADCDA1789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{9F686658-B38A-AF43-87BC-8862ADFA90CD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="73">
   <si>
     <t>Line Reflection</t>
   </si>
@@ -653,7 +653,7 @@
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1022,6 +1022,12 @@
       <c r="C22" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="G22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1">

--- a/Yandex_learning/interview/Задача.xlsx
+++ b/Yandex_learning/interview/Задача.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shoma\Documents\Learning\Yandex_learning\interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591634F7-041C-4658-8500-636ADCDA1789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C120957-95F3-4095-A821-E5CFC69BA2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{9F686658-B38A-AF43-87BC-8862ADFA90CD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
   <si>
     <t>Line Reflection</t>
   </si>
@@ -653,7 +653,7 @@
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1039,6 +1039,12 @@
       <c r="C23" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="G23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1">

--- a/Yandex_learning/interview/Задача.xlsx
+++ b/Yandex_learning/interview/Задача.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shoma\Documents\Learning\Yandex_learning\interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C120957-95F3-4095-A821-E5CFC69BA2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65778DB7-2D11-494B-9A7E-E709A3DCE50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{9F686658-B38A-AF43-87BC-8862ADFA90CD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="73">
   <si>
     <t>Line Reflection</t>
   </si>
@@ -653,7 +653,7 @@
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1056,6 +1056,12 @@
       <c r="C24" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="G24" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1">
@@ -1066,6 +1072,9 @@
       </c>
       <c r="C25" s="4" t="s">
         <v>24</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:8">

--- a/Yandex_learning/interview/Задача.xlsx
+++ b/Yandex_learning/interview/Задача.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shoma\Documents\Learning\Yandex_learning\interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65778DB7-2D11-494B-9A7E-E709A3DCE50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79DBFB5-4712-4DB9-B240-21B69D7A9261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{9F686658-B38A-AF43-87BC-8862ADFA90CD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="73">
   <si>
     <t>Line Reflection</t>
   </si>
@@ -311,7 +311,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F341B8F-6337-7643-A497-1C0AC0EBA6FD}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1087,6 +1087,9 @@
       <c r="C26" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="G26" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1">

--- a/Yandex_learning/interview/Задача.xlsx
+++ b/Yandex_learning/interview/Задача.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shoma\Documents\Learning\Yandex_learning\interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79DBFB5-4712-4DB9-B240-21B69D7A9261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2E2580-B099-4F83-BE29-6385732680B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{9F686658-B38A-AF43-87BC-8862ADFA90CD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="76">
   <si>
     <t>Line Reflection</t>
   </si>
@@ -255,6 +255,15 @@
   </si>
   <si>
     <t>50/50, можно лучше</t>
+  </si>
+  <si>
+    <t>Пропущено</t>
+  </si>
+  <si>
+    <t>можно лучше</t>
+  </si>
+  <si>
+    <t>Проверно</t>
   </si>
 </sst>
 </file>
@@ -296,7 +305,7 @@
       <name val="-apple-system"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,7 +320,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -336,6 +351,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -652,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F341B8F-6337-7643-A497-1C0AC0EBA6FD}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -920,7 +936,7 @@
       <c r="C16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="7" t="s">
         <v>69</v>
       </c>
       <c r="H16" t="s">
@@ -930,7 +946,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -947,7 +963,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -964,7 +980,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -978,7 +994,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -995,7 +1011,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -1012,7 +1028,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -1029,7 +1045,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -1046,7 +1062,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -1063,7 +1079,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -1077,7 +1093,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -1091,7 +1107,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -1101,8 +1117,11 @@
       <c r="C27" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="G27" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -1112,8 +1131,14 @@
       <c r="C28" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="G28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -1123,8 +1148,17 @@
       <c r="C29" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="G29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -1134,8 +1168,14 @@
       <c r="C30" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="G30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -1146,7 +1186,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>32</v>
       </c>

--- a/Yandex_learning/interview/Задача.xlsx
+++ b/Yandex_learning/interview/Задача.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shoma\Documents\Learning\Yandex_learning\interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2E2580-B099-4F83-BE29-6385732680B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86C429C-7BA8-41D2-ABCF-879C3B95206D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{9F686658-B38A-AF43-87BC-8862ADFA90CD}"/>
   </bookViews>
@@ -669,7 +669,7 @@
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/Yandex_learning/interview/Задача.xlsx
+++ b/Yandex_learning/interview/Задача.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shoma\Documents\Learning\Yandex_learning\interview\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shoma/Learning/Yandex_learning/interview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86C429C-7BA8-41D2-ABCF-879C3B95206D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3430C8-D7F8-CC46-914A-A240E75FE930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{9F686658-B38A-AF43-87BC-8862ADFA90CD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23980" windowHeight="19920" xr2:uid="{9F686658-B38A-AF43-87BC-8862ADFA90CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="75">
   <si>
     <t>Line Reflection</t>
   </si>
@@ -252,9 +252,6 @@
   </si>
   <si>
     <t>Разобрано</t>
-  </si>
-  <si>
-    <t>50/50, можно лучше</t>
   </si>
   <si>
     <t>Пропущено</t>
@@ -668,11 +665,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F341B8F-6337-7643-A497-1C0AC0EBA6FD}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1">
@@ -943,7 +940,7 @@
         <v>70</v>
       </c>
       <c r="I16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1118,7 +1115,7 @@
         <v>26</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1152,10 +1149,10 @@
         <v>69</v>
       </c>
       <c r="H29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1185,6 +1182,12 @@
       <c r="C31" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="G31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1">
@@ -1196,8 +1199,14 @@
       <c r="C32" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="G32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -1207,8 +1216,14 @@
       <c r="C33" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="G33" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -1219,7 +1234,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -1230,7 +1245,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -1241,7 +1256,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -1252,7 +1267,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -1263,7 +1278,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -1274,7 +1289,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -1285,7 +1300,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -1296,7 +1311,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -1307,7 +1322,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -1318,7 +1333,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -1329,7 +1344,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -1340,7 +1355,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -1351,7 +1366,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -1362,7 +1377,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>48</v>
       </c>

--- a/Yandex_learning/interview/Задача.xlsx
+++ b/Yandex_learning/interview/Задача.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shoma/Learning/Yandex_learning/interview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3430C8-D7F8-CC46-914A-A240E75FE930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA67D25-5E45-4A48-B82B-61864B1D61A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23980" windowHeight="19920" xr2:uid="{9F686658-B38A-AF43-87BC-8862ADFA90CD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
   <si>
     <t>Line Reflection</t>
   </si>
@@ -666,7 +666,7 @@
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -1233,6 +1233,12 @@
       <c r="C34" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="G34" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1">

--- a/Yandex_learning/interview/Задача.xlsx
+++ b/Yandex_learning/interview/Задача.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shoma/Learning/Yandex_learning/interview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA67D25-5E45-4A48-B82B-61864B1D61A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F47CA9-132B-6B47-91CB-6F8B436C8999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23980" windowHeight="19920" xr2:uid="{9F686658-B38A-AF43-87BC-8862ADFA90CD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="75">
   <si>
     <t>Line Reflection</t>
   </si>
@@ -666,7 +666,7 @@
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -1250,6 +1250,12 @@
       <c r="C35" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="G35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1">

--- a/Yandex_learning/interview/Задача.xlsx
+++ b/Yandex_learning/interview/Задача.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shoma/Learning/Yandex_learning/interview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F47CA9-132B-6B47-91CB-6F8B436C8999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E726F0BD-0508-0445-A61C-49816F379542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23980" windowHeight="19920" xr2:uid="{9F686658-B38A-AF43-87BC-8862ADFA90CD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="75">
   <si>
     <t>Line Reflection</t>
   </si>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F341B8F-6337-7643-A497-1C0AC0EBA6FD}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -1267,6 +1267,12 @@
       <c r="C36" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="G36" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1">

--- a/Yandex_learning/interview/Задача.xlsx
+++ b/Yandex_learning/interview/Задача.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shoma/Learning/Yandex_learning/interview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E726F0BD-0508-0445-A61C-49816F379542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AC295E-3DA0-B74E-A839-3C84CBA3F10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23980" windowHeight="19920" xr2:uid="{9F686658-B38A-AF43-87BC-8862ADFA90CD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="75">
   <si>
     <t>Line Reflection</t>
   </si>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F341B8F-6337-7643-A497-1C0AC0EBA6FD}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -1284,6 +1284,12 @@
       <c r="C37" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="G37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1">
@@ -1294,6 +1300,12 @@
       </c>
       <c r="C38" s="4" t="s">
         <v>37</v>
+      </c>
+      <c r="G38" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:8">

--- a/Yandex_learning/interview/Задача.xlsx
+++ b/Yandex_learning/interview/Задача.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shoma/Learning/Yandex_learning/interview/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shoma\Documents\Learning\Yandex_learning\interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AC295E-3DA0-B74E-A839-3C84CBA3F10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A279F5-AC67-4865-85FA-2CEC8235112D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23980" windowHeight="19920" xr2:uid="{9F686658-B38A-AF43-87BC-8862ADFA90CD}"/>
+    <workbookView xWindow="7680" yWindow="0" windowWidth="23040" windowHeight="15552" xr2:uid="{9F686658-B38A-AF43-87BC-8862ADFA90CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="75">
   <si>
     <t>Line Reflection</t>
   </si>
@@ -665,11 +665,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F341B8F-6337-7643-A497-1C0AC0EBA6FD}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1">
@@ -1318,6 +1318,9 @@
       <c r="C39" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="G39" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1">

--- a/Yandex_learning/interview/Задача.xlsx
+++ b/Yandex_learning/interview/Задача.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shoma\Documents\Learning\Yandex_learning\interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A279F5-AC67-4865-85FA-2CEC8235112D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AD9EC4-1D22-4C80-84A3-D56BECA8E936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7680" yWindow="0" windowWidth="23040" windowHeight="15552" xr2:uid="{9F686658-B38A-AF43-87BC-8862ADFA90CD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="75">
   <si>
     <t>Line Reflection</t>
   </si>
@@ -666,7 +666,7 @@
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1332,6 +1332,9 @@
       <c r="C40" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="G40" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1">

--- a/Yandex_learning/interview/Задача.xlsx
+++ b/Yandex_learning/interview/Задача.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shoma\Documents\Learning\Yandex_learning\interview\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shoma/Learning/Yandex_learning/interview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AD9EC4-1D22-4C80-84A3-D56BECA8E936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1702DDE1-1C87-2B4A-B837-1FA5654DEAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="0" windowWidth="23040" windowHeight="15552" xr2:uid="{9F686658-B38A-AF43-87BC-8862ADFA90CD}"/>
+    <workbookView xWindow="4420" yWindow="500" windowWidth="26300" windowHeight="19140" xr2:uid="{9F686658-B38A-AF43-87BC-8862ADFA90CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="75">
   <si>
     <t>Line Reflection</t>
   </si>
@@ -665,11 +665,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F341B8F-6337-7643-A497-1C0AC0EBA6FD}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1">
@@ -1346,6 +1346,12 @@
       <c r="C41" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="G41" t="s">
+        <v>69</v>
+      </c>
+      <c r="H41" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1">
@@ -1357,6 +1363,9 @@
       <c r="C42" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="G42" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1">
@@ -1368,6 +1377,12 @@
       <c r="C43" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="G43" t="s">
+        <v>69</v>
+      </c>
+      <c r="H43" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1">
@@ -1379,6 +1394,12 @@
       <c r="C44" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="G44" t="s">
+        <v>69</v>
+      </c>
+      <c r="H44" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1">
@@ -1390,6 +1411,12 @@
       <c r="C45" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="G45" t="s">
+        <v>69</v>
+      </c>
+      <c r="H45" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1">
@@ -1401,6 +1428,9 @@
       <c r="C46" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="G46" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1">
@@ -1412,6 +1442,12 @@
       <c r="C47" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="G47" t="s">
+        <v>69</v>
+      </c>
+      <c r="H47" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1">
@@ -1423,8 +1459,14 @@
       <c r="C48" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="G48" t="s">
+        <v>69</v>
+      </c>
+      <c r="H48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -1434,8 +1476,14 @@
       <c r="C49" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="G49" t="s">
+        <v>69</v>
+      </c>
+      <c r="H49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -1445,8 +1493,14 @@
       <c r="C50" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="G50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -1456,8 +1510,14 @@
       <c r="C51" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="G51" t="s">
+        <v>69</v>
+      </c>
+      <c r="H51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -1467,8 +1527,14 @@
       <c r="C52" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="G52" t="s">
+        <v>69</v>
+      </c>
+      <c r="H52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -1478,8 +1544,11 @@
       <c r="C53" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="G53" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>54</v>
       </c>
@@ -1489,8 +1558,14 @@
       <c r="C54" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="G54" t="s">
+        <v>69</v>
+      </c>
+      <c r="H54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -1501,7 +1576,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>56</v>
       </c>
@@ -1512,7 +1587,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>57</v>
       </c>
@@ -1523,7 +1598,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>58</v>
       </c>
@@ -1534,7 +1609,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>59</v>
       </c>
@@ -1545,7 +1620,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>60</v>
       </c>
@@ -1556,7 +1631,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>61</v>
       </c>
@@ -1567,7 +1642,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -1578,7 +1653,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -1589,7 +1664,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>64</v>
       </c>

--- a/Yandex_learning/interview/Задача.xlsx
+++ b/Yandex_learning/interview/Задача.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shoma/Learning/Yandex_learning/interview/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shoma\Documents\Learning\Yandex_learning\interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1702DDE1-1C87-2B4A-B837-1FA5654DEAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7F5515-0C8A-4767-9978-D5B8C6138113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="500" windowWidth="26300" windowHeight="19140" xr2:uid="{9F686658-B38A-AF43-87BC-8862ADFA90CD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{9F686658-B38A-AF43-87BC-8862ADFA90CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="76">
   <si>
     <t>Line Reflection</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>Проверно</t>
+  </si>
+  <si>
+    <t>Посмотреть решения на литкоде</t>
   </si>
 </sst>
 </file>
@@ -340,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -349,6 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -665,11 +669,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F341B8F-6337-7643-A497-1C0AC0EBA6FD}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1">
@@ -1058,6 +1062,9 @@
       <c r="H23" t="s">
         <v>70</v>
       </c>
+      <c r="I23" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1">
@@ -1199,11 +1206,8 @@
       <c r="C32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G32" t="s">
-        <v>69</v>
-      </c>
-      <c r="H32" t="s">
-        <v>70</v>
+      <c r="G32" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1466,7 +1470,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:9">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -1483,7 +1487,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:9">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -1500,7 +1504,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:9">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -1517,7 +1521,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:9">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -1534,7 +1538,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:9">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -1548,7 +1552,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:9">
       <c r="A54" s="1">
         <v>54</v>
       </c>
@@ -1565,7 +1569,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:9">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -1575,8 +1579,11 @@
       <c r="C55" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="G55" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1">
         <v>56</v>
       </c>
@@ -1586,8 +1593,11 @@
       <c r="C56" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="G56" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1">
         <v>57</v>
       </c>
@@ -1597,8 +1607,14 @@
       <c r="C57" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="G57" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1">
         <v>58</v>
       </c>
@@ -1608,8 +1624,14 @@
       <c r="C58" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="G58" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1">
         <v>59</v>
       </c>
@@ -1619,8 +1641,14 @@
       <c r="C59" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="G59" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1">
         <v>60</v>
       </c>
@@ -1630,8 +1658,14 @@
       <c r="C60" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="G60" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H60" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1">
         <v>61</v>
       </c>
@@ -1641,8 +1675,17 @@
       <c r="C61" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="G61" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H61" t="s">
+        <v>70</v>
+      </c>
+      <c r="I61" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -1652,8 +1695,14 @@
       <c r="C62" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="G62" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H62" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -1663,8 +1712,11 @@
       <c r="C63" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="G63" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -1674,8 +1726,14 @@
       <c r="C64" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="G64" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H64" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>65</v>
       </c>
@@ -1685,8 +1743,14 @@
       <c r="C65" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="G65" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -1696,8 +1760,14 @@
       <c r="C66" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="G66" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -1707,8 +1777,11 @@
       <c r="C67" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="G67" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>68</v>
       </c>
@@ -1717,6 +1790,12 @@
       </c>
       <c r="C68" s="4" t="s">
         <v>67</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H68" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
